--- a/엑셀설명자료/08_sigmoid predictor_logistic regression.xlsx
+++ b/엑셀설명자료/08_sigmoid predictor_logistic regression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASSIST\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aSSIST\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A121DC-C33B-4800-A60E-F8FC34641918}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="machine learning" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>1. Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -494,12 +495,28 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>a, b1, b2는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구했다고 가정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +595,13 @@
       <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -721,7 +745,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1120,7 +1143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1550,7 +1572,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1869,7 +1890,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2053,7 +2073,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3917,7 +3936,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3947,7 +3972,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3977,7 +4008,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="_x426818072" descr="DRW00007934125c"/>
+        <xdr:cNvPr id="9" name="_x426818072" descr="DRW00007934125c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4032,7 +4069,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4062,7 +4105,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 1"/>
+        <xdr:cNvPr id="10" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4094,7 +4143,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 2"/>
+        <xdr:cNvPr id="11" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4114,19 +4169,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>148827</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>199627</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>386952</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>184007</xdr:rowOff>
+      <xdr:colOff>437752</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4139,8 +4200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="148827" y="5822155"/>
-          <a:ext cx="4577954" cy="5529915"/>
+          <a:off x="199627" y="6194424"/>
+          <a:ext cx="4581525" cy="5565633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4557,30 +4618,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="11" style="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -4594,7 +4655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4608,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4622,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4636,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4650,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4664,31 +4725,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -4715,7 +4779,7 @@
       </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4743,7 +4807,7 @@
         <v>0.18731539867440034</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4774,7 +4838,7 @@
         <v>0.38934174550234885</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4805,7 +4869,7 @@
         <v>0.64125095253543851</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4836,7 +4900,7 @@
         <v>0.84450361590379253</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>5</v>
       </c>
@@ -4867,23 +4931,23 @@
         <v>0.93759050180566494</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="3" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>6</v>
       </c>
@@ -4934,7 +4998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -4962,7 +5026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
@@ -4975,7 +5039,7 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -4986,7 +5050,7 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B62" s="11" t="s">
         <v>18</v>
       </c>
@@ -5003,7 +5067,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B63" s="10">
         <v>-5</v>
       </c>
@@ -5022,7 +5086,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B64" s="10">
         <v>-4</v>
       </c>
@@ -5041,7 +5105,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B65" s="10">
         <v>-3</v>
       </c>
@@ -5060,7 +5124,7 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B66" s="10">
         <v>-2</v>
       </c>
@@ -5079,7 +5143,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B67" s="10">
         <v>-1</v>
       </c>
@@ -5098,7 +5162,7 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B68" s="10">
         <v>0</v>
       </c>
@@ -5117,7 +5181,7 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B69" s="10">
         <v>1</v>
       </c>
@@ -5136,7 +5200,7 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B70" s="10">
         <v>2</v>
       </c>
@@ -5155,7 +5219,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B71" s="10">
         <v>3</v>
       </c>
@@ -5174,7 +5238,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B72" s="10">
         <v>4</v>
       </c>
@@ -5193,7 +5257,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B73" s="10">
         <v>5</v>
       </c>
@@ -5212,7 +5276,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -5223,7 +5287,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -5234,7 +5298,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -5245,7 +5309,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -5256,7 +5320,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -5267,7 +5331,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -5278,7 +5342,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -5289,7 +5353,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -5300,7 +5364,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -5311,7 +5375,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -5322,7 +5386,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -5333,7 +5397,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -5344,7 +5408,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.6">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -5355,7 +5419,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
       <c r="B87" s="2"/>
     </row>
   </sheetData>

--- a/엑셀설명자료/08_sigmoid predictor_logistic regression.xlsx
+++ b/엑셀설명자료/08_sigmoid predictor_logistic regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aSSIST\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A121DC-C33B-4800-A60E-F8FC34641918}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F171198-380B-4B47-A9C7-960242C812ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4621,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.35"/>
